--- a/Demo_files/teacherDetails_fras.xlsx
+++ b/Demo_files/teacherDetails_fras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TechNo(D)\Projects\Face Recognition\FRAS\Demo_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DB6D68-2C2D-4B74-9A69-69E62DE1211E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67425E21-91E4-4D17-9769-232090937F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>COLLEGE OF TECHNOLOGY AND ENGINEERING, UDAIPUR</t>
   </si>
@@ -52,18 +52,12 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>DLD(CS242)</t>
-  </si>
-  <si>
     <t>1234567891</t>
   </si>
   <si>
     <t>Human Values(BS232)</t>
   </si>
   <si>
-    <t>DMS(BS242), Mathematics(BS231)</t>
-  </si>
-  <si>
     <t>Electrical Measurmemt &amp; Instruments(EE232)</t>
   </si>
   <si>
@@ -76,33 +70,12 @@
     <t>Communication Systems(EC243)</t>
   </si>
   <si>
-    <t>OS(CS361), Object Oriented Programming with C++(CS235)</t>
-  </si>
-  <si>
-    <t>TOC(CS354), Design &amp; Analysis of Algorithms(CS362)</t>
-  </si>
-  <si>
-    <t>CN(CS352), Compiler Design(CS363)</t>
-  </si>
-  <si>
     <t>Unix(CS247), System Administration(CS253), Software Engineering(CS365)</t>
   </si>
   <si>
     <t>Digital Logic Design(CS236), Data Analysis with Python(CS366)</t>
   </si>
   <si>
-    <t>Distributed System(CS471), DSA(CS245)</t>
-  </si>
-  <si>
-    <t>Microprocessor(CS355), COA(CS246), Information Security(CS472)</t>
-  </si>
-  <si>
-    <t>AI(CS473)</t>
-  </si>
-  <si>
-    <t>ML(CS474), DBMS(CS351), IT Workshop(CS364)</t>
-  </si>
-  <si>
     <t>Teacher1</t>
   </si>
   <si>
@@ -127,9 +100,6 @@
     <t>Teacher8</t>
   </si>
   <si>
-    <t>Teacher9</t>
-  </si>
-  <si>
     <t>Teacher10</t>
   </si>
   <si>
@@ -175,9 +145,6 @@
     <t>teacher10@example.com</t>
   </si>
   <si>
-    <t>teacher9@example.com</t>
-  </si>
-  <si>
     <t>teacher8@example.com</t>
   </si>
   <si>
@@ -197,6 +164,30 @@
   </si>
   <si>
     <t>teacher2@example.com</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence (CS473)</t>
+  </si>
+  <si>
+    <t>Discrete Mathematical Structures(BS242), Mathematics(BS231)</t>
+  </si>
+  <si>
+    <t>Computer Network(CS352), Compiler Design(CS363)</t>
+  </si>
+  <si>
+    <t>Theory Of Computation(CS354), Design &amp; Analysis of Algorithms(CS362)</t>
+  </si>
+  <si>
+    <t>Operating Systems(CS361), Object Oriented Programming with C++(CS235)</t>
+  </si>
+  <si>
+    <t>Machine Learning(CS474), Data Base Management System(CS351), IT Workshop(CS364)</t>
+  </si>
+  <si>
+    <t>Distributed System(CS471), Data Structures and Algorithms(CS245)</t>
+  </si>
+  <si>
+    <t>Microprocessor(CS355), Computer Organisation and Architecture(CS246), Information Security(CS472)</t>
   </si>
 </sst>
 </file>
@@ -369,15 +360,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -598,10 +589,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -611,29 +602,29 @@
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="74" customWidth="1"/>
+    <col min="6" max="6" width="96" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -670,17 +661,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="17" t="s">
-        <v>43</v>
+      <c r="D5" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,17 +679,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="17" t="s">
-        <v>58</v>
+      <c r="D6" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -706,17 +697,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="17" t="s">
-        <v>57</v>
+      <c r="D7" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -724,17 +715,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="17" t="s">
-        <v>56</v>
+      <c r="D8" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -742,17 +733,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="17" t="s">
-        <v>55</v>
+      <c r="D9" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,17 +751,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="17" t="s">
-        <v>54</v>
+      <c r="D10" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -778,35 +769,35 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="17" t="s">
-        <v>53</v>
+      <c r="D11" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="17" t="s">
-        <v>52</v>
+      <c r="D12" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -814,17 +805,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="17" t="s">
-        <v>51</v>
+      <c r="D13" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -832,17 +823,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="17" t="s">
-        <v>50</v>
+      <c r="D14" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -850,17 +841,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1234567891</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -868,14 +859,14 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="17" t="s">
-        <v>48</v>
+      <c r="D16" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="E16" s="12">
-        <v>1234567891</v>
+        <v>1234567890</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>12</v>
@@ -886,17 +877,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="17" t="s">
-        <v>47</v>
+      <c r="D17" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="E17" s="12">
         <v>1234567890</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -904,62 +895,44 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="17" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="E18" s="12">
-        <v>1234567890</v>
+        <v>1234567788</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="12">
+        <v>9876543210</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1234567788</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>16</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="12">
-        <v>9876543210</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -969,22 +942,21 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{E8DF167A-E0A8-4CE9-BDBB-7527FACA3136}"/>
-    <hyperlink ref="D6:D20" r:id="rId2" display="teacher1@example.com" xr:uid="{744164A5-0596-41A6-B88E-24DA61852076}"/>
-    <hyperlink ref="D20" r:id="rId3" xr:uid="{15978D23-B5E1-49BA-B111-0F1BA9923D80}"/>
-    <hyperlink ref="D19" r:id="rId4" xr:uid="{7F3CD743-AEB3-4557-81ED-C229584F3538}"/>
-    <hyperlink ref="D18" r:id="rId5" xr:uid="{F8761BA3-3736-4AAC-8C97-2D006D4AB2C8}"/>
-    <hyperlink ref="D17" r:id="rId6" xr:uid="{4BE227CF-14E9-4B69-A72D-FADAACAF53AA}"/>
-    <hyperlink ref="D16" r:id="rId7" xr:uid="{B72C01C2-C249-48A7-A260-DB8F27C9DEE0}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{DDEE23B6-7CC7-4AF5-82C7-79CED44B3115}"/>
-    <hyperlink ref="D14" r:id="rId9" xr:uid="{8870FA8E-7B6B-46B0-9C86-28081B3431EA}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{17AA7D12-ED67-4B58-8B26-5878D651E677}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{3C915A64-88C6-4813-BC48-1EFD959C8C40}"/>
-    <hyperlink ref="D11" r:id="rId12" xr:uid="{B8CB1988-D452-4C83-8EEA-648264C382A5}"/>
-    <hyperlink ref="D10" r:id="rId13" xr:uid="{C33ECBCF-D86B-4F97-AE36-2003B642D22B}"/>
-    <hyperlink ref="D9" r:id="rId14" xr:uid="{424DB6D4-5219-40B0-9A14-3D21778EEB90}"/>
-    <hyperlink ref="D8" r:id="rId15" xr:uid="{25F28AC0-5AB5-4629-92B1-D69F800034B2}"/>
-    <hyperlink ref="D7" r:id="rId16" xr:uid="{58A55038-F647-4240-9C29-6751F2BB316A}"/>
-    <hyperlink ref="D6" r:id="rId17" xr:uid="{7505F07E-6A9F-49D3-AF49-CDEFDB08C9F3}"/>
+    <hyperlink ref="D6:D19" r:id="rId2" display="teacher1@example.com" xr:uid="{744164A5-0596-41A6-B88E-24DA61852076}"/>
+    <hyperlink ref="D19" r:id="rId3" xr:uid="{15978D23-B5E1-49BA-B111-0F1BA9923D80}"/>
+    <hyperlink ref="D18" r:id="rId4" xr:uid="{7F3CD743-AEB3-4557-81ED-C229584F3538}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{F8761BA3-3736-4AAC-8C97-2D006D4AB2C8}"/>
+    <hyperlink ref="D16" r:id="rId6" xr:uid="{4BE227CF-14E9-4B69-A72D-FADAACAF53AA}"/>
+    <hyperlink ref="D15" r:id="rId7" xr:uid="{B72C01C2-C249-48A7-A260-DB8F27C9DEE0}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{DDEE23B6-7CC7-4AF5-82C7-79CED44B3115}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{8870FA8E-7B6B-46B0-9C86-28081B3431EA}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{3C915A64-88C6-4813-BC48-1EFD959C8C40}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{B8CB1988-D452-4C83-8EEA-648264C382A5}"/>
+    <hyperlink ref="D10" r:id="rId12" xr:uid="{C33ECBCF-D86B-4F97-AE36-2003B642D22B}"/>
+    <hyperlink ref="D9" r:id="rId13" xr:uid="{424DB6D4-5219-40B0-9A14-3D21778EEB90}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{25F28AC0-5AB5-4629-92B1-D69F800034B2}"/>
+    <hyperlink ref="D7" r:id="rId15" xr:uid="{58A55038-F647-4240-9C29-6751F2BB316A}"/>
+    <hyperlink ref="D6" r:id="rId16" xr:uid="{7505F07E-6A9F-49D3-AF49-CDEFDB08C9F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
